--- a/conf/label.xlsx
+++ b/conf/label.xlsx
@@ -1,1644 +1,1576 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7605"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396">
   <si>
     <t>风景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>美女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动漫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>创意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>爱情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>卡通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>明星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>车模</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>汽车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>节日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>影视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>植物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>星座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>美食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>唯美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>精美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伤感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搞笑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cosplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>足球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>球星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>世界杯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>哆啦A梦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>圣诞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>兔子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>妖精的尾巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>龙猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>欧美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>时尚大片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>烹调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>财神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>秋田君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>短漫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>春夏秋冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春天</t>
+  </si>
+  <si>
+    <t>夏天</t>
+  </si>
+  <si>
+    <t>秋天</t>
+  </si>
+  <si>
+    <t>冬天</t>
+  </si>
+  <si>
+    <t>油爆叽丁</t>
+  </si>
+  <si>
+    <t>哈咪猫</t>
+  </si>
+  <si>
+    <t>纯净</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>密集</t>
+  </si>
+  <si>
+    <t>中国风</t>
+  </si>
+  <si>
+    <t>游乐场</t>
+  </si>
+  <si>
+    <t>插画</t>
+  </si>
+  <si>
+    <t>模特</t>
+  </si>
+  <si>
+    <t>古装</t>
+  </si>
+  <si>
+    <t>日韩</t>
+  </si>
+  <si>
+    <t>少女</t>
+  </si>
+  <si>
+    <t>纱衣</t>
+  </si>
+  <si>
+    <t>清纯</t>
+  </si>
+  <si>
+    <t>文艺</t>
+  </si>
+  <si>
+    <t>林允儿</t>
+  </si>
+  <si>
+    <t>性感</t>
+  </si>
+  <si>
+    <t>清新</t>
+  </si>
+  <si>
+    <t>黑白</t>
+  </si>
+  <si>
+    <t>吴莫愁</t>
+  </si>
+  <si>
+    <t>简约</t>
+  </si>
+  <si>
+    <t>angelababy</t>
+  </si>
+  <si>
+    <t>可儿</t>
+  </si>
+  <si>
+    <t>养眼</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>泰勒</t>
+  </si>
+  <si>
+    <t>高俊熙</t>
+  </si>
+  <si>
+    <t>佟丽娅</t>
+  </si>
+  <si>
+    <t>铃木爱理</t>
+  </si>
+  <si>
+    <t>女孩</t>
+  </si>
+  <si>
+    <t>宋智孝</t>
+  </si>
+  <si>
+    <t>赵奕欢</t>
+  </si>
+  <si>
+    <t>金宥真</t>
+  </si>
+  <si>
+    <t>经典</t>
+  </si>
+  <si>
+    <t>杨幂</t>
+  </si>
+  <si>
+    <t>崔雪莉</t>
+  </si>
+  <si>
+    <t>芭芭拉</t>
+  </si>
+  <si>
+    <t>申世京</t>
+  </si>
+  <si>
+    <t>朴善怜</t>
+  </si>
+  <si>
+    <t>高冷</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>李多海</t>
+  </si>
+  <si>
+    <t>少女时代</t>
+  </si>
+  <si>
+    <t>徐贤</t>
+  </si>
+  <si>
+    <t>斯嘉丽</t>
+  </si>
+  <si>
+    <t>南奎利</t>
+  </si>
+  <si>
+    <t>林素恩</t>
+  </si>
+  <si>
+    <t>气质</t>
+  </si>
+  <si>
+    <t>霉霉</t>
+  </si>
+  <si>
+    <t>孔孝真</t>
+  </si>
+  <si>
+    <t>KARA</t>
+  </si>
+  <si>
+    <t>大长腿</t>
+  </si>
+  <si>
+    <t>凯蒂佩里</t>
+  </si>
+  <si>
+    <t>Liv Tyler</t>
+  </si>
+  <si>
+    <t>tara</t>
+  </si>
+  <si>
+    <t>裴秀智</t>
+  </si>
+  <si>
+    <t>夕阳</t>
+  </si>
+  <si>
+    <t>蕾哈娜</t>
+  </si>
+  <si>
+    <t>朴信惠</t>
+  </si>
+  <si>
+    <t>90后</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>写真</t>
+  </si>
+  <si>
+    <t>李小璐</t>
+  </si>
+  <si>
+    <t>AKB38</t>
+  </si>
+  <si>
+    <t>大和田南</t>
+  </si>
+  <si>
+    <t>yurisa</t>
+  </si>
+  <si>
+    <t>周冬雨</t>
+  </si>
+  <si>
+    <t>show girl</t>
+  </si>
+  <si>
+    <t>陈潇清</t>
+  </si>
+  <si>
+    <t>夏日</t>
+  </si>
+  <si>
+    <t>赵多娜</t>
+  </si>
+  <si>
+    <t>诱惑</t>
+  </si>
+  <si>
+    <t>娄艺潇</t>
+  </si>
+  <si>
+    <t>郑秀妍</t>
+  </si>
+  <si>
+    <t>davichi</t>
+  </si>
+  <si>
+    <t>阳光</t>
+  </si>
+  <si>
+    <t>Dal Shabet</t>
+  </si>
+  <si>
+    <t>新桓结衣</t>
+  </si>
+  <si>
+    <t>周韦彤</t>
+  </si>
+  <si>
+    <t>韩孝珠</t>
+  </si>
+  <si>
+    <t>运动</t>
+  </si>
+  <si>
+    <t>BoA</t>
+  </si>
+  <si>
+    <t>Jewlry</t>
+  </si>
+  <si>
+    <t>梦露</t>
+  </si>
+  <si>
+    <t>杨颖</t>
+  </si>
+  <si>
+    <t>宋慧乔</t>
+  </si>
+  <si>
+    <t>特写</t>
+  </si>
+  <si>
+    <t>郑秀晶</t>
+  </si>
+  <si>
+    <t>金泰妍</t>
+  </si>
+  <si>
+    <t>劳伦斯</t>
+  </si>
+  <si>
+    <t>金钟国</t>
+  </si>
+  <si>
+    <t>崔准熙</t>
+  </si>
+  <si>
+    <t>黄灿灿</t>
+  </si>
+  <si>
+    <t>章子怡</t>
+  </si>
+  <si>
+    <t>许允美</t>
+  </si>
+  <si>
+    <t>索尔达娜</t>
+  </si>
+  <si>
+    <t>秋瓷炫</t>
+  </si>
+  <si>
+    <t>张子萱</t>
+  </si>
+  <si>
+    <t>申敏儿</t>
+  </si>
+  <si>
+    <t>姜敏京</t>
+  </si>
+  <si>
+    <t>河智苑</t>
+  </si>
+  <si>
+    <t>Nam Eun Ju</t>
+  </si>
+  <si>
+    <t>李贞贤</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>范冰冰</t>
+  </si>
+  <si>
+    <t>李艺真</t>
+  </si>
+  <si>
+    <t>宝儿</t>
+  </si>
+  <si>
+    <t>戚薇</t>
+  </si>
+  <si>
+    <t>孙佳仁</t>
+  </si>
+  <si>
+    <t>全孝盛</t>
+  </si>
+  <si>
+    <t>贾静雯</t>
+  </si>
+  <si>
+    <t>非主流</t>
+  </si>
+  <si>
+    <t>黄美英</t>
+  </si>
+  <si>
+    <t>RaNia</t>
+  </si>
+  <si>
+    <t>长腿</t>
+  </si>
+  <si>
+    <t>布兰妮</t>
+  </si>
+  <si>
+    <t>范玮琪</t>
+  </si>
+  <si>
+    <t>随拍</t>
+  </si>
+  <si>
+    <t>伊丽娜</t>
+  </si>
+  <si>
+    <t>柳岩</t>
+  </si>
+  <si>
+    <t>宋茜</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>chinajoy</t>
+  </si>
+  <si>
+    <t>叶梓萱</t>
+  </si>
+  <si>
+    <t>朴智妍</t>
+  </si>
+  <si>
+    <t>张歆艺</t>
+  </si>
+  <si>
+    <t>奥黛丽赫本</t>
+  </si>
+  <si>
+    <t>杨紫</t>
+  </si>
+  <si>
+    <t>淡雅</t>
+  </si>
+  <si>
+    <t>韩惠珍</t>
+  </si>
+  <si>
+    <t>桥本奈奈</t>
+  </si>
+  <si>
+    <t>网球</t>
+  </si>
+  <si>
+    <t>朴银惠</t>
+  </si>
+  <si>
+    <t>AOA</t>
+  </si>
+  <si>
+    <t>萧亚轩</t>
+  </si>
+  <si>
+    <t>夏季</t>
+  </si>
+  <si>
+    <t>户外</t>
+  </si>
+  <si>
+    <t>裴紫绮</t>
+  </si>
+  <si>
+    <t>郑爽</t>
+  </si>
+  <si>
+    <t>赵雅英</t>
+  </si>
+  <si>
+    <t>高山</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <t>田野</t>
+  </si>
+  <si>
+    <t>丛林</t>
+  </si>
+  <si>
+    <t>晨光</t>
+  </si>
+  <si>
+    <t>林间小路</t>
   </si>
   <si>
     <t>春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油爆叽丁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈咪猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯净</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游乐场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日韩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纱衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清纯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文艺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林允儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴莫愁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>angelababy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lady Gaga</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰勒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高俊熙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佟丽娅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铃木爱理</t>
-  </si>
-  <si>
-    <t>女孩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋智孝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵奕欢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨幂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔雪莉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芭芭拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申世京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朴善怜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高冷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李多海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女时代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐贤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯嘉丽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南奎利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林素恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>气质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霉霉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔孝真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KARA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大长腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯蒂佩里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liv Tyler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tara</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裴秀智</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夕阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蕾哈娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朴信惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jessica</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jessica</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李小璐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AKB38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大和田南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yurisa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周冬雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈潇清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>春天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵多娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诱惑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娄艺潇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑秀妍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>davichi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dal Shabet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新桓结衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周韦彤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩孝珠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jewlry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨颖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋慧乔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑秀晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金泰妍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳伦斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钟国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔准熙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄灿灿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章子怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许允美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索尔达娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋瓷炫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张子萱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申敏儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姜敏京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河智苑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nam Eun Ju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李贞贤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范冰冰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李艺真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戚薇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙佳仁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全孝盛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾静雯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非主流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄美英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RaNia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布兰妮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范玮琪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随拍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊丽娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柳岩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋茜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show girl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chinajoy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶梓萱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铃木爱理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朴智妍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张歆艺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥黛丽赫本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨紫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡雅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩惠珍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥本奈奈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朴银惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萧亚轩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏季</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裴紫绮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑爽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵雅英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>田野</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丛林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晨光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林间小路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>月球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>星空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加勒比海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>热带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>海底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内华达州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>美国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>夏末</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>秋初</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>意大利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>绝美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>朝霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>晚霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>夜景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>雪景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加利福尼亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>亚利桑那州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>红叶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>溪水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>河流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>岛屿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>海滩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蓝天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>白云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>壮观</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>海浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>泰国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阿拉斯加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>南极洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奥地利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>脚印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>森林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>太空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伦敦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>街景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LOMO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>秋色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>树木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>树叶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>冰岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>雄伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>深蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄石公园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>普吉岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>竹子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>沙滩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄叶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>白雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新加坡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>田园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>希腊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>薰衣草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>冬季</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大峡谷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>马尔代夫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>幽静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄昏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>风信子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小清新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铁塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>海岸线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>山脉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>沙漠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>罂粟花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>深空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>山川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>竹林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>壮丽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>山峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>山水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微距</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>花海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>火山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>道路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>瀑布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>余晖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>海岛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>科罗拉多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>峡谷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>澳大利亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>山谷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>托斯卡纳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加拿大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>雏菊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新疆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>银河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>露珠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>然乌湖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>香山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>西藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>荷兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>郁金香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>情侣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玫瑰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高圆圆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浪漫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>心形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>热气球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>甜蜜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>巧克力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>饼干</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>恋人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手绘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>爱情公寓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>寂寞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>白色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>粉色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黑色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>缤纷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>抽象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>幻彩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>花卉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>温暖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>室内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>糖果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>复仇者联盟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>星巴克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鲨鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玻璃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>复古</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暗黑破坏神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阿迪达斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>超级英雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>西瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>另类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>耐克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阿狸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>萝莉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>摩丝摩丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>泰迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>熊猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小猪滚滚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>海贼王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>汪星人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比格犬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>辛巴狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DOTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>长颈鹿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>萌呆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>马卡龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>泰迪熊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>幽默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>帅气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>童话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>盒子人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>端午节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蘑菇点点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吃货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蜡笔小新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>樱桃小丸子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>兔斯基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黑岩射手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HelloKitty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>初音未来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>火影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中二病</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>炼金术师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蓝色驱魔师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全职猎人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>缘之空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黑子的篮球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>海绵宝宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>辛普森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>超级索尼子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>游泳美男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小黄人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>虫师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加速世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模糊娃娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>柯南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>洛天依</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>灰色的果实</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阿童木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>夏目友人帐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魔女的花园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>芒果仔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>神探夏洛克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乔巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大头娃娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伪物语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>银魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>萌妹子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>罪恶王冠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蔷薇少女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我爱罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吸血鬼骑士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宥真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1646,9 +1578,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1657,11 +1831,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1944,19 +2170,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A411"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -2145,1903 +2371,1834 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>397</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>15</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
-      <c r="A411" t="s">
-        <v>396</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/conf/label.xlsx
+++ b/conf/label.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="636">
   <si>
     <t>风景</t>
   </si>
@@ -1204,19 +1204,973 @@
   </si>
   <si>
     <t>吸血鬼骑士</t>
+  </si>
+  <si>
+    <t>艾薇儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂纶镁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莉亚迪桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡边麻友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果子MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘亦菲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍井空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崛北真希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢霆锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周杰伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩庚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李宇春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张馨予</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林志玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终幻想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒之塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星际争霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊利丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热舞派对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨菲罗斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生化危机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使命召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡丁车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔兽世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄联盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻西游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿越火线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻诛仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古剑奇谭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ryse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虐杀原形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上古卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争前线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤岛危机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堕落之王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>街霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠盗猎车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑道圣徒4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗黑三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保卫萝卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥江湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生化战场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ西游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降龙之剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激战2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星际2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞分裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空裂痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻飞仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼神传奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯迪拉克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宾利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大黄蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰博基尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔驰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保时捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯巴鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川崎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克莱斯勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布加迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路易威登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香奈儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾弗森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺伊尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹姆斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篮球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范佩西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德罗巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金妍儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厄齐尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿根廷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗德里格斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝克汉姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英格兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博尔特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁尼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊涅斯塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pirlo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家马德里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰拉德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费德勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿森纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯尔特人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内马尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎拉波娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林书豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈阿密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万圣节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愚人节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情人节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三生三世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碟中谍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形金刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼吹灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捉妖记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中注定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰火与青春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花千骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大圣归来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度与激情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风中奇缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一步之遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血鬼日记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后会无期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敢死队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驯龙骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械战警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国队长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权利的游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍比特人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏洛克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饥饿游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵旅社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极速蜗牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝精灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰陵王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狄仁杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一夜惊喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青春期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭敬明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星际迷航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫狗大战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暮光之城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈利波特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到北极去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰河世纪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比萨斜塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金字塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马德里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Famous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈士奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麋鹿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比熊犬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喵星人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牡丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒲公英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康乃馨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向日葵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三叶草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海棠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花蕾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花朵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四叶草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盆栽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木纹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩托车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒漠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马里奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣托里尼岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渐变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒的小鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊本熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加菲猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1225,352 +2179,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1578,251 +2201,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1831,57 +2212,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2170,16 +2504,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A396"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A636"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L97" sqref="L97"/>
+    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
+      <selection activeCell="C637" sqref="C637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4164,41 +4498,1235 @@
         <v>395</v>
       </c>
     </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" t="s">
+        <v>635</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>